--- a/BackTest/2020-01-15 BackTest XSR.xlsx
+++ b/BackTest/2020-01-15 BackTest XSR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-4034999.026200001</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-3901322.4427</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-3930485.049200001</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-4533182.923600001</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-4453255.653100002</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-4453255.653100002</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-4716893.158800001</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-4717046.729600001</v>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-4956935.377400002</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-4956435.377400002</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-5202210.471200001</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-5036037.998900002</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-4724178.628500002</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-5373784.031600001</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-5617319.794800001</v>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-6288053.204200001</v>
       </c>
       <c r="H31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-6281317.989400001</v>
       </c>
       <c r="H32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-6595311.959500001</v>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-6812404.495800001</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-6812404.495800001</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-6629131.5969</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-7169018.6109</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-6836912.5762</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-6500157.5279</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-6275637.139500001</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-6272628.928900001</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-6272628.928900001</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-6138552.257300001</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-6138914.5025</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-6277650.305400001</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-6023193.858400001</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-6023270.858400001</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-6023270.858400001</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-5845352.606300001</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-5845852.606300001</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-5561259.922800001</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-5389148.075500001</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-5388577.075500001</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-5386577.075500001</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-5665333.786200001</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-5332215.921500001</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-6645511.960600001</v>
       </c>
       <c r="H77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-6895435.492500001</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-6698895.705200001</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-6698895.705200001</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-6904146.4889</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-6903646.4889</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-6903646.4889</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-7040022.0301</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-7283943.1355</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-7283793.1355</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-7614532.7246</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-7615046.1423</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-7745057.291200001</v>
       </c>
       <c r="H89" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-7745057.291200001</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-7461443.953800001</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-7338919.982700001</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-7338839.982700001</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-7646741.445600001</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-7818026.254600001</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-8162465.907100001</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-7919645.613300001</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-7917645.613300001</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-8262556.483400001</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-8030092.488500001</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-7870238.482100001</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-8971283.889900001</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-8971203.889900001</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-9127508.126800001</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-8612956.242800001</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-8333466.632800001</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-8334400.334000001</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-8704330.668000001</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-8787556.310500002</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-9091284.003800001</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-9056521.8782</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-9371683.517000001</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-9371683.517000001</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-9168536.279700002</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-8821748.941500003</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-8821748.941500003</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-8978325.610600002</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-9307452.956200002</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-9484107.204800002</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-9484107.204800002</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-9658735.970600002</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-9704566.523700001</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-9501471.6404</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-9501471.6404</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-9723599.441299999</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-9601631.612499999</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-9601631.612499999</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-9601631.612499999</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-9295576.789199999</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-9510464.414299998</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-9717541.134299999</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-9499062.425399998</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-9353403.981399998</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-9353403.981399998</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-9353642.166399999</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-9560082.701099999</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-9560082.701099999</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-9344787.9879</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-9535154.4855</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-9535154.4855</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-9535154.4855</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-9707899.7369</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-9932314.578299999</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-9932314.578299999</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-10224434.3137</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-10224434.3137</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-10051787.1788</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-10383892.6001</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-10383892.6001</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-10383892.6001</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-10383892.6001</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-10215186.8591</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-10562881.4711</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-10562881.4711</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-11901059.1146</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-11730259.8774</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-12066792.5388</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-12284611.6413</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-12284611.6413</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-12589882.4492</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-12617984.8176</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-10478423.2393</v>
       </c>
       <c r="H200" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>-10299898.8361</v>
       </c>
       <c r="H201" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>-9996223.267200002</v>
       </c>
       <c r="H202" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>-9996223.267200002</v>
       </c>
       <c r="H203" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>-10354606.6614</v>
       </c>
       <c r="H204" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>-10354670.6703</v>
       </c>
       <c r="H205" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>-10355233.3109</v>
       </c>
       <c r="H206" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>-10606199.2952</v>
       </c>
       <c r="H207" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>-10230058.3005</v>
       </c>
       <c r="H208" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-10230306.3511</v>
       </c>
       <c r="H209" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>-10580822.3639</v>
       </c>
       <c r="H210" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>-10544872.1326</v>
       </c>
       <c r="H211" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-10459415.1683</v>
       </c>
       <c r="H212" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-10060796.2793</v>
       </c>
       <c r="H213" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-10060796.2793</v>
       </c>
       <c r="H214" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-10060796.2793</v>
       </c>
       <c r="H215" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-10060796.2793</v>
       </c>
       <c r="H216" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-10268584.4771</v>
       </c>
       <c r="H217" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>-10226061.2338</v>
       </c>
       <c r="H218" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>-10045809.1129</v>
       </c>
       <c r="H219" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>-10240018.9371</v>
       </c>
       <c r="H220" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>-10233096.2602</v>
       </c>
       <c r="H221" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>-10232096.2602</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>-10592655.4255</v>
       </c>
       <c r="H223" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-10592544.4255</v>
       </c>
       <c r="H224" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-10801030.4715</v>
       </c>
       <c r="H225" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>-10800860.4715</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-10448507.5286</v>
       </c>
       <c r="H227" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-10780515.6975</v>
       </c>
       <c r="H228" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-11114931.3181</v>
       </c>
       <c r="H229" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-11124909.6454</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>-11124909.6454</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>-11124909.6454</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>-11131555.9394</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-11375976.209</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>-11375976.209</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-11108300.4628</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>-11216373.8739</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>-11083750.6116</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>-11083750.6116</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>-11257310.5401</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>-11495178.2502</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>-11495178.2502</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>-11508848.2141</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>-11885509.3309</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>-11966438.0071</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>-11984462.709</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>-12309361.9111</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>-12339236.6344</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>-12346010.7417</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>-12600646.8329</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>-12584828.57</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>-12418765.5865</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>-12607071.6748</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>-12601325.3831</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>-12797743.4456</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>-12789023.6649</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>-12789023.6649</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>-13064872.73910001</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>-13129929.28540001</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>-13181533.83030001</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>-13181533.83030001</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>-12947099.36780001</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>-12976825.87890001</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>-12981778.45860001</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-13269351.09610001</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-13301966.91070001</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>-13026681.08810001</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>-13026602.08810001</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>-13224178.76800001</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>-13287467.45680001</v>
       </c>
       <c r="H274" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>-13036354.92660001</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-13379663.79920001</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>-13144753.92190001</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-13144625.17800001</v>
       </c>
       <c r="H278" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>-13285403.22990001</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>-13375070.06090001</v>
       </c>
       <c r="H280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>-13754315.78120001</v>
       </c>
       <c r="H281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>-13754315.78120001</v>
       </c>
       <c r="H282" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>-13428986.02040001</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>-13428986.02040001</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>-13402211.54840001</v>
       </c>
       <c r="H285" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>-13564187.88220001</v>
       </c>
       <c r="H286" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>-13246958.93410001</v>
       </c>
       <c r="H288" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-12994286.77750001</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>-13188671.20810001</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>-13318887.90880001</v>
       </c>
       <c r="H292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>-13318776.90880001</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>-13516922.57540001</v>
       </c>
       <c r="H294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -15136,7 +15136,7 @@
         <v>-17611603.74303685</v>
       </c>
       <c r="H447" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15202,7 +15202,7 @@
         <v>-17939360.33043685</v>
       </c>
       <c r="H449" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15763,7 +15763,7 @@
         <v>-16294508.68203685</v>
       </c>
       <c r="H466" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -15796,7 +15796,7 @@
         <v>-16537512.35433685</v>
       </c>
       <c r="H467" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -15829,7 +15829,7 @@
         <v>-16200964.42293685</v>
       </c>
       <c r="H468" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -17347,7 +17347,7 @@
         <v>-15159228.91659461</v>
       </c>
       <c r="H514" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -31900,11 +31900,17 @@
         <v>-46705824.89424032</v>
       </c>
       <c r="H955" t="n">
-        <v>0</v>
-      </c>
-      <c r="I955" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I955" t="n">
+        <v>6.626</v>
+      </c>
       <c r="J955" t="inlineStr"/>
-      <c r="K955" t="inlineStr"/>
+      <c r="K955" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L955" t="n">
         <v>1</v>
       </c>
@@ -31933,11 +31939,17 @@
         <v>-46705824.89424032</v>
       </c>
       <c r="H956" t="n">
-        <v>0</v>
-      </c>
-      <c r="I956" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I956" t="n">
+        <v>6.62</v>
+      </c>
       <c r="J956" t="inlineStr"/>
-      <c r="K956" t="inlineStr"/>
+      <c r="K956" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L956" t="n">
         <v>1</v>
       </c>
@@ -31966,7 +31978,7 @@
         <v>-47325528.13244032</v>
       </c>
       <c r="H957" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I957" t="n">
         <v>6.62</v>
@@ -31974,7 +31986,7 @@
       <c r="J957" t="inlineStr"/>
       <c r="K957" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L957" t="n">
@@ -32005,7 +32017,7 @@
         <v>-47325528.13244032</v>
       </c>
       <c r="H958" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I958" t="n">
         <v>6.61</v>
@@ -32044,7 +32056,7 @@
         <v>-46203624.77174032</v>
       </c>
       <c r="H959" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I959" t="n">
         <v>6.61</v>
@@ -32083,7 +32095,7 @@
         <v>-46203624.77174032</v>
       </c>
       <c r="H960" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I960" t="n">
         <v>6.63</v>
@@ -32122,7 +32134,7 @@
         <v>-45819631.72944032</v>
       </c>
       <c r="H961" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I961" t="n">
         <v>6.63</v>
@@ -32161,7 +32173,7 @@
         <v>-45934056.68434031</v>
       </c>
       <c r="H962" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I962" t="n">
         <v>6.662</v>
@@ -32200,7 +32212,7 @@
         <v>-46068649.19544031</v>
       </c>
       <c r="H963" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I963" t="n">
         <v>6.64</v>
@@ -32239,7 +32251,7 @@
         <v>-46068649.19544031</v>
       </c>
       <c r="H964" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I964" t="n">
         <v>6.635</v>
@@ -32278,7 +32290,7 @@
         <v>-44978677.4095723</v>
       </c>
       <c r="H965" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I965" t="n">
         <v>6.635</v>
@@ -32317,7 +32329,7 @@
         <v>-44976056.4824723</v>
       </c>
       <c r="H966" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I966" t="n">
         <v>6.705</v>
@@ -32356,7 +32368,7 @@
         <v>-45410012.3189723</v>
       </c>
       <c r="H967" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I967" t="n">
         <v>6.725</v>
@@ -32395,9 +32407,11 @@
         <v>-45410012.3189723</v>
       </c>
       <c r="H968" t="n">
-        <v>0</v>
-      </c>
-      <c r="I968" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I968" t="n">
+        <v>6.724</v>
+      </c>
       <c r="J968" t="inlineStr"/>
       <c r="K968" t="inlineStr">
         <is>
@@ -32432,9 +32446,11 @@
         <v>-45655802.4381723</v>
       </c>
       <c r="H969" t="n">
-        <v>0</v>
-      </c>
-      <c r="I969" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I969" t="n">
+        <v>6.724</v>
+      </c>
       <c r="J969" t="inlineStr"/>
       <c r="K969" t="inlineStr">
         <is>
@@ -32469,9 +32485,11 @@
         <v>-45798048.95347229</v>
       </c>
       <c r="H970" t="n">
-        <v>0</v>
-      </c>
-      <c r="I970" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I970" t="n">
+        <v>6.72</v>
+      </c>
       <c r="J970" t="inlineStr"/>
       <c r="K970" t="inlineStr">
         <is>
@@ -32506,7 +32524,7 @@
         <v>-45733819.29357229</v>
       </c>
       <c r="H971" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I971" t="n">
         <v>6.671</v>
@@ -32545,9 +32563,11 @@
         <v>-46040631.81757229</v>
       </c>
       <c r="H972" t="n">
-        <v>0</v>
-      </c>
-      <c r="I972" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I972" t="n">
+        <v>6.72</v>
+      </c>
       <c r="J972" t="inlineStr"/>
       <c r="K972" t="inlineStr">
         <is>
@@ -32582,9 +32602,11 @@
         <v>-46040631.81757229</v>
       </c>
       <c r="H973" t="n">
-        <v>0</v>
-      </c>
-      <c r="I973" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I973" t="n">
+        <v>6.71</v>
+      </c>
       <c r="J973" t="inlineStr"/>
       <c r="K973" t="inlineStr">
         <is>
@@ -32619,9 +32641,11 @@
         <v>-46040631.81757229</v>
       </c>
       <c r="H974" t="n">
-        <v>0</v>
-      </c>
-      <c r="I974" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I974" t="n">
+        <v>6.71</v>
+      </c>
       <c r="J974" t="inlineStr"/>
       <c r="K974" t="inlineStr">
         <is>
@@ -32767,9 +32791,11 @@
         <v>-46496984.80287229</v>
       </c>
       <c r="H978" t="n">
-        <v>0</v>
-      </c>
-      <c r="I978" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I978" t="n">
+        <v>6.712</v>
+      </c>
       <c r="J978" t="inlineStr"/>
       <c r="K978" t="inlineStr">
         <is>
@@ -32804,9 +32830,11 @@
         <v>-46707644.28827228</v>
       </c>
       <c r="H979" t="n">
-        <v>0</v>
-      </c>
-      <c r="I979" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I979" t="n">
+        <v>6.71</v>
+      </c>
       <c r="J979" t="inlineStr"/>
       <c r="K979" t="inlineStr">
         <is>
@@ -32841,9 +32869,11 @@
         <v>-46705520.34757228</v>
       </c>
       <c r="H980" t="n">
-        <v>0</v>
-      </c>
-      <c r="I980" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I980" t="n">
+        <v>6.689</v>
+      </c>
       <c r="J980" t="inlineStr"/>
       <c r="K980" t="inlineStr">
         <is>
@@ -32878,9 +32908,11 @@
         <v>-47076258.34237228</v>
       </c>
       <c r="H981" t="n">
-        <v>0</v>
-      </c>
-      <c r="I981" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I981" t="n">
+        <v>6.709</v>
+      </c>
       <c r="J981" t="inlineStr"/>
       <c r="K981" t="inlineStr">
         <is>
@@ -33063,9 +33095,11 @@
         <v>-47324812.30847229</v>
       </c>
       <c r="H986" t="n">
-        <v>0</v>
-      </c>
-      <c r="I986" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I986" t="n">
+        <v>6.665</v>
+      </c>
       <c r="J986" t="inlineStr"/>
       <c r="K986" t="inlineStr">
         <is>
@@ -33100,9 +33134,11 @@
         <v>-47324812.30847229</v>
       </c>
       <c r="H987" t="n">
-        <v>0</v>
-      </c>
-      <c r="I987" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I987" t="n">
+        <v>6.665</v>
+      </c>
       <c r="J987" t="inlineStr"/>
       <c r="K987" t="inlineStr">
         <is>
@@ -33174,9 +33210,11 @@
         <v>-47386220.31867229</v>
       </c>
       <c r="H989" t="n">
-        <v>0</v>
-      </c>
-      <c r="I989" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I989" t="n">
+        <v>6.665</v>
+      </c>
       <c r="J989" t="inlineStr"/>
       <c r="K989" t="inlineStr">
         <is>
@@ -33211,7 +33249,7 @@
         <v>-47386220.31867229</v>
       </c>
       <c r="H990" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I990" t="n">
         <v>6.661</v>
@@ -33250,7 +33288,7 @@
         <v>-47147323.75547229</v>
       </c>
       <c r="H991" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I991" t="n">
         <v>6.661</v>
@@ -33289,7 +33327,7 @@
         <v>-47436938.94637229</v>
       </c>
       <c r="H992" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I992" t="n">
         <v>6.698</v>
@@ -33491,6 +33529,6 @@
       <c r="M997" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-15 BackTest XSR.xlsx
+++ b/BackTest/2020-01-15 BackTest XSR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-4034999.026200001</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-3901322.4427</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-4956935.377400002</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-4956435.377400002</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-5202210.471200001</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-5036037.998900002</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-4724178.628500002</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-5373784.031600001</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-5617319.794800001</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-6288053.204200001</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-6281317.989400001</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-6595311.959500001</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-6812404.495800001</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-6812404.495800001</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-6629131.5969</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-7169018.6109</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-6836912.5762</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-6500157.5279</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-6275637.139500001</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-6272628.928900001</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-6272628.928900001</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-6138552.257300001</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-6138914.5025</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-6277650.305400001</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-6023193.858400001</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-6023270.858400001</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-6023270.858400001</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-5845352.606300001</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-5845852.606300001</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-5561259.922800001</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-5389148.075500001</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-5388577.075500001</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-5386577.075500001</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-5665333.786200001</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-5332215.921500001</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-6645511.960600001</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-6895435.492500001</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-6698895.705200001</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-6698895.705200001</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-6904146.4889</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-6903646.4889</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-6903646.4889</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-7040022.0301</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-7283943.1355</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-7283793.1355</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-7614532.7246</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-7615046.1423</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-7745057.291200001</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-7461443.953800001</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-7338919.982700001</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-7338839.982700001</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-7646741.445600001</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-7818026.254600001</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-8162465.907100001</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-7919645.613300001</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-7917645.613300001</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-8262556.483400001</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-8030092.488500001</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-7870238.482100001</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-8971283.889900001</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-8971203.889900001</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-9127508.126800001</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-8612956.242800001</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-8333466.632800001</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-8334400.334000001</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-8704330.668000001</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-8787556.310500002</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-9091284.003800001</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-9056521.8782</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-9371683.517000001</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-9371683.517000001</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-9168536.279700002</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-8821748.941500003</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-8821748.941500003</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-8978325.610600002</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-9307452.956200002</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-9484107.204800002</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-9484107.204800002</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-9658735.970600002</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-9704566.523700001</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-9501471.6404</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-9501471.6404</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-9723599.441299999</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-9601631.612499999</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-9601631.612499999</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-9601631.612499999</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-9295576.789199999</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-9510464.414299998</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-9717541.134299999</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-9499062.425399998</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-9353403.981399998</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-9353403.981399998</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-9353642.166399999</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-9560082.701099999</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-9560082.701099999</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-9344787.9879</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-9535154.4855</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-9535154.4855</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-9535154.4855</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-9707899.7369</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-9932314.578299999</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-9932314.578299999</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-10224434.3137</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-10224434.3137</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-10051787.1788</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-10215186.8591</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-10562881.4711</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-10562881.4711</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-11901059.1146</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-11730259.8774</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-12066792.5388</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-12284611.6413</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-12284611.6413</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-12589882.4492</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-12617984.8176</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>-10606199.2952</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>-10230058.3005</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-10230306.3511</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>-10580822.3639</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>-10544872.1326</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-10459415.1683</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-10060796.2793</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-10060796.2793</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-10060796.2793</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-10060796.2793</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-10268584.4771</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>-10226061.2338</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>-10045809.1129</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>-10240018.9371</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>-10233096.2602</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>-10232096.2602</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>-10592655.4255</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-10592544.4255</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-10801030.4715</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>-10800860.4715</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-10448507.5286</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-11114931.3181</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-11124909.6454</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>-11124909.6454</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>-11124909.6454</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>-11131555.9394</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-11375976.209</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>-11375976.209</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-11108300.4628</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>-11216373.8739</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>-11083750.6116</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>-11083750.6116</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>-11257310.5401</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>-11495178.2502</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>-11495178.2502</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>-11508848.2141</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>-11885509.3309</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>-11966438.0071</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>-11984462.709</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>-12309361.9111</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>-12339236.6344</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>-12346010.7417</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>-12600646.8329</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>-12584828.57</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>-12418765.5865</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>-12607071.6748</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>-12601325.3831</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>-12797743.4456</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>-12789023.6649</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>-12789023.6649</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>-13064872.73910001</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>-13129929.28540001</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>-13181533.83030001</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>-13181533.83030001</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>-12947099.36780001</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>-12976825.87890001</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>-12981778.45860001</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-13269351.09610001</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-13301966.91070001</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>-13026681.08810001</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>-13026602.08810001</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>-13224178.76800001</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>-13287467.45680001</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>-13036354.92660001</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-13379663.79920001</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>-13144753.92190001</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-13144625.17800001</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>-13285403.22990001</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>-13754315.78120001</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>-13428986.02040001</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>-13428986.02040001</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -14344,7 +14344,7 @@
         <v>-20615145.78072824</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14377,7 +14377,7 @@
         <v>-20593018.80812824</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14410,7 +14410,7 @@
         <v>-20736959.10162824</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14476,7 +14476,7 @@
         <v>-20365695.03222824</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14509,7 +14509,7 @@
         <v>-20423810.52902824</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -14542,7 +14542,7 @@
         <v>-20083669.96792824</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -14575,7 +14575,7 @@
         <v>-20135299.25942824</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -14608,7 +14608,7 @@
         <v>-19783183.60592823</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -14641,7 +14641,7 @@
         <v>-19783183.60592823</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14674,7 +14674,7 @@
         <v>-19783183.60592823</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -14707,7 +14707,7 @@
         <v>-19495688.59662823</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -14938,7 +14938,7 @@
         <v>-19328587.10782823</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -15004,7 +15004,7 @@
         <v>-18847587.34702823</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15037,7 +15037,7 @@
         <v>-18845120.51822823</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15070,7 +15070,7 @@
         <v>-19223720.72542823</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15103,7 +15103,7 @@
         <v>-19139097.02632823</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15136,7 +15136,7 @@
         <v>-17611603.74303685</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15169,7 +15169,7 @@
         <v>-17607695.62843685</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15202,7 +15202,7 @@
         <v>-17939360.33043685</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15235,7 +15235,7 @@
         <v>-17670778.06353685</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15268,7 +15268,7 @@
         <v>-17719451.45713685</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15301,7 +15301,7 @@
         <v>-17532576.94963685</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15334,7 +15334,7 @@
         <v>-17304891.57263685</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15367,7 +15367,7 @@
         <v>-17305543.81113685</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15400,7 +15400,7 @@
         <v>-16947680.83553685</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15433,7 +15433,7 @@
         <v>-16741251.87843685</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -15466,7 +15466,7 @@
         <v>-16741427.53293685</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -15499,7 +15499,7 @@
         <v>-16434591.73893685</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
         <v>-16434591.73893685</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -15565,7 +15565,7 @@
         <v>-16434106.73893685</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -15598,7 +15598,7 @@
         <v>-16433440.50043685</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -15631,7 +15631,7 @@
         <v>-16422518.39863685</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -15664,7 +15664,7 @@
         <v>-16422518.39863685</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
         <v>-16097593.23233685</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -15730,7 +15730,7 @@
         <v>-16097593.23233685</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -15763,7 +15763,7 @@
         <v>-16294508.68203685</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -15796,7 +15796,7 @@
         <v>-16537512.35433685</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -15829,7 +15829,7 @@
         <v>-16200964.42293685</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -15862,7 +15862,7 @@
         <v>-16401740.53663685</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -15895,7 +15895,7 @@
         <v>-16401527.19343685</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -15928,7 +15928,7 @@
         <v>-16080773.98703685</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -15961,7 +15961,7 @@
         <v>-15962358.87703685</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -15994,7 +15994,7 @@
         <v>-15574756.14893685</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
         <v>-15328784.08153685</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16060,7 +16060,7 @@
         <v>-15328784.08153685</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16093,7 +16093,7 @@
         <v>-15187312.63153685</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16126,7 +16126,7 @@
         <v>-15732287.99119461</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16159,7 +16159,7 @@
         <v>-16112458.31329461</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
         <v>-16112958.31329461</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -16225,7 +16225,7 @@
         <v>-16112958.31329461</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -16258,7 +16258,7 @@
         <v>-16190754.77509461</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -16291,7 +16291,7 @@
         <v>-15859664.61649461</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -16324,7 +16324,7 @@
         <v>-15925397.79389461</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
         <v>-15925841.37019461</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -16390,7 +16390,7 @@
         <v>-15493629.81229461</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -16423,7 +16423,7 @@
         <v>-15491486.31499461</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -16456,7 +16456,7 @@
         <v>-15851282.0960946</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -16489,7 +16489,7 @@
         <v>-15851960.25569461</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
         <v>-15813715.21739461</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -17611,7 +17611,7 @@
         <v>-14719304.83678599</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -17644,7 +17644,7 @@
         <v>-14753603.11778598</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -17677,7 +17677,7 @@
         <v>-14497989.00478598</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -22924,7 +22924,7 @@
         <v>-32906871.55780552</v>
       </c>
       <c r="H683" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -22957,7 +22957,7 @@
         <v>-32781147.48420552</v>
       </c>
       <c r="H684" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
@@ -22990,7 +22990,7 @@
         <v>-32952530.45940552</v>
       </c>
       <c r="H685" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
@@ -23023,7 +23023,7 @@
         <v>-32682008.70640552</v>
       </c>
       <c r="H686" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
@@ -23056,7 +23056,7 @@
         <v>-32816975.87920552</v>
       </c>
       <c r="H687" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
@@ -23089,7 +23089,7 @@
         <v>-33042076.66460552</v>
       </c>
       <c r="H688" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
@@ -23122,7 +23122,7 @@
         <v>-32898733.80410552</v>
       </c>
       <c r="H689" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
@@ -23155,7 +23155,7 @@
         <v>-32898733.80410552</v>
       </c>
       <c r="H690" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
@@ -23188,7 +23188,7 @@
         <v>-33075463.97230553</v>
       </c>
       <c r="H691" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
@@ -23221,7 +23221,7 @@
         <v>-33090295.36770552</v>
       </c>
       <c r="H692" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
@@ -23254,7 +23254,7 @@
         <v>-33320206.56790552</v>
       </c>
       <c r="H693" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
@@ -23287,7 +23287,7 @@
         <v>-33912312.81020552</v>
       </c>
       <c r="H694" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
@@ -23320,7 +23320,7 @@
         <v>-33912312.81020552</v>
       </c>
       <c r="H695" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
@@ -23353,7 +23353,7 @@
         <v>-34038034.88590552</v>
       </c>
       <c r="H696" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
@@ -23386,7 +23386,7 @@
         <v>-34194336.77590552</v>
       </c>
       <c r="H697" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
@@ -23419,7 +23419,7 @@
         <v>-34289714.51590552</v>
       </c>
       <c r="H698" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
@@ -23452,7 +23452,7 @@
         <v>-34492375.59600552</v>
       </c>
       <c r="H699" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
@@ -23485,7 +23485,7 @@
         <v>-34282396.02610552</v>
       </c>
       <c r="H700" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
@@ -23518,7 +23518,7 @@
         <v>-34637487.39910553</v>
       </c>
       <c r="H701" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
@@ -23551,7 +23551,7 @@
         <v>-34637707.56440552</v>
       </c>
       <c r="H702" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
@@ -23584,7 +23584,7 @@
         <v>-34637707.56440552</v>
       </c>
       <c r="H703" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
@@ -23617,7 +23617,7 @@
         <v>-34637707.56440552</v>
       </c>
       <c r="H704" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
@@ -23650,7 +23650,7 @@
         <v>-34851605.56750552</v>
       </c>
       <c r="H705" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
@@ -23683,7 +23683,7 @@
         <v>-34851605.56750552</v>
       </c>
       <c r="H706" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
@@ -23716,7 +23716,7 @@
         <v>-34612419.34710553</v>
       </c>
       <c r="H707" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
@@ -23749,7 +23749,7 @@
         <v>-34614880.67980552</v>
       </c>
       <c r="H708" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -23782,7 +23782,7 @@
         <v>-34614880.67980552</v>
       </c>
       <c r="H709" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -23815,7 +23815,7 @@
         <v>-34614880.67980552</v>
       </c>
       <c r="H710" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
@@ -23848,7 +23848,7 @@
         <v>-34967285.20950553</v>
       </c>
       <c r="H711" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
@@ -23881,7 +23881,7 @@
         <v>-34967212.20950553</v>
       </c>
       <c r="H712" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
@@ -23914,7 +23914,7 @@
         <v>-35308666.03940552</v>
       </c>
       <c r="H713" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
@@ -23947,7 +23947,7 @@
         <v>-35644251.89810552</v>
       </c>
       <c r="H714" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
@@ -23980,7 +23980,7 @@
         <v>-35354711.05200552</v>
       </c>
       <c r="H715" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
@@ -25036,7 +25036,7 @@
         <v>-36116304.219262</v>
       </c>
       <c r="H747" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
@@ -25102,7 +25102,7 @@
         <v>-36406483.828062</v>
       </c>
       <c r="H749" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
@@ -25135,7 +25135,7 @@
         <v>-36220901.534762</v>
       </c>
       <c r="H750" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
@@ -25366,7 +25366,7 @@
         <v>-37944080.47586199</v>
       </c>
       <c r="H757" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
@@ -25564,7 +25564,7 @@
         <v>-37728288.99816199</v>
       </c>
       <c r="H763" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
@@ -25597,7 +25597,7 @@
         <v>-37516496.83696198</v>
       </c>
       <c r="H764" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
@@ -25630,7 +25630,7 @@
         <v>-37516496.83696198</v>
       </c>
       <c r="H765" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
@@ -25663,7 +25663,7 @@
         <v>-37011101.79056198</v>
       </c>
       <c r="H766" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
@@ -25696,7 +25696,7 @@
         <v>-37010570.77416198</v>
       </c>
       <c r="H767" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
@@ -25729,7 +25729,7 @@
         <v>-36758272.58206198</v>
       </c>
       <c r="H768" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
@@ -25762,7 +25762,7 @@
         <v>-36758272.58206198</v>
       </c>
       <c r="H769" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
@@ -25795,7 +25795,7 @@
         <v>-36492107.91986198</v>
       </c>
       <c r="H770" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
@@ -25828,7 +25828,7 @@
         <v>-36218834.35946198</v>
       </c>
       <c r="H771" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
@@ -25861,7 +25861,7 @@
         <v>-36219888.54126198</v>
       </c>
       <c r="H772" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
@@ -25894,7 +25894,7 @@
         <v>-36219762.54126198</v>
       </c>
       <c r="H773" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
@@ -25927,7 +25927,7 @@
         <v>-36478883.55646197</v>
       </c>
       <c r="H774" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
@@ -25960,7 +25960,7 @@
         <v>-36521266.47376198</v>
       </c>
       <c r="H775" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
@@ -26026,7 +26026,7 @@
         <v>-36581269.98456197</v>
       </c>
       <c r="H777" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
@@ -26059,7 +26059,7 @@
         <v>-36599194.16326197</v>
       </c>
       <c r="H778" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
@@ -26092,7 +26092,7 @@
         <v>-36842861.33856197</v>
       </c>
       <c r="H779" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
@@ -31834,11 +31834,17 @@
         <v>-46663429.88334032</v>
       </c>
       <c r="H953" t="n">
-        <v>0</v>
-      </c>
-      <c r="I953" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I953" t="n">
+        <v>6.665</v>
+      </c>
       <c r="J953" t="inlineStr"/>
-      <c r="K953" t="inlineStr"/>
+      <c r="K953" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L953" t="n">
         <v>1</v>
       </c>
@@ -31867,11 +31873,17 @@
         <v>-46664004.37224032</v>
       </c>
       <c r="H954" t="n">
-        <v>0</v>
-      </c>
-      <c r="I954" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I954" t="n">
+        <v>6.63</v>
+      </c>
       <c r="J954" t="inlineStr"/>
-      <c r="K954" t="inlineStr"/>
+      <c r="K954" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L954" t="n">
         <v>1</v>
       </c>
@@ -31908,7 +31920,7 @@
       <c r="J955" t="inlineStr"/>
       <c r="K955" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L955" t="n">
@@ -32329,11 +32341,9 @@
         <v>-44976056.4824723</v>
       </c>
       <c r="H966" t="n">
-        <v>1</v>
-      </c>
-      <c r="I966" t="n">
-        <v>6.705</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I966" t="inlineStr"/>
       <c r="J966" t="inlineStr"/>
       <c r="K966" t="inlineStr">
         <is>
@@ -32368,11 +32378,9 @@
         <v>-45410012.3189723</v>
       </c>
       <c r="H967" t="n">
-        <v>1</v>
-      </c>
-      <c r="I967" t="n">
-        <v>6.725</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I967" t="inlineStr"/>
       <c r="J967" t="inlineStr"/>
       <c r="K967" t="inlineStr">
         <is>
@@ -32407,11 +32415,9 @@
         <v>-45410012.3189723</v>
       </c>
       <c r="H968" t="n">
-        <v>1</v>
-      </c>
-      <c r="I968" t="n">
-        <v>6.724</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I968" t="inlineStr"/>
       <c r="J968" t="inlineStr"/>
       <c r="K968" t="inlineStr">
         <is>
@@ -32446,11 +32452,9 @@
         <v>-45655802.4381723</v>
       </c>
       <c r="H969" t="n">
-        <v>1</v>
-      </c>
-      <c r="I969" t="n">
-        <v>6.724</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I969" t="inlineStr"/>
       <c r="J969" t="inlineStr"/>
       <c r="K969" t="inlineStr">
         <is>
@@ -32485,11 +32489,9 @@
         <v>-45798048.95347229</v>
       </c>
       <c r="H970" t="n">
-        <v>1</v>
-      </c>
-      <c r="I970" t="n">
-        <v>6.72</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I970" t="inlineStr"/>
       <c r="J970" t="inlineStr"/>
       <c r="K970" t="inlineStr">
         <is>
@@ -32524,11 +32526,9 @@
         <v>-45733819.29357229</v>
       </c>
       <c r="H971" t="n">
-        <v>1</v>
-      </c>
-      <c r="I971" t="n">
-        <v>6.671</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I971" t="inlineStr"/>
       <c r="J971" t="inlineStr"/>
       <c r="K971" t="inlineStr">
         <is>
@@ -32563,11 +32563,9 @@
         <v>-46040631.81757229</v>
       </c>
       <c r="H972" t="n">
-        <v>1</v>
-      </c>
-      <c r="I972" t="n">
-        <v>6.72</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I972" t="inlineStr"/>
       <c r="J972" t="inlineStr"/>
       <c r="K972" t="inlineStr">
         <is>
@@ -32602,11 +32600,9 @@
         <v>-46040631.81757229</v>
       </c>
       <c r="H973" t="n">
-        <v>1</v>
-      </c>
-      <c r="I973" t="n">
-        <v>6.71</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I973" t="inlineStr"/>
       <c r="J973" t="inlineStr"/>
       <c r="K973" t="inlineStr">
         <is>
@@ -32641,11 +32637,9 @@
         <v>-46040631.81757229</v>
       </c>
       <c r="H974" t="n">
-        <v>1</v>
-      </c>
-      <c r="I974" t="n">
-        <v>6.71</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I974" t="inlineStr"/>
       <c r="J974" t="inlineStr"/>
       <c r="K974" t="inlineStr">
         <is>
@@ -32791,11 +32785,9 @@
         <v>-46496984.80287229</v>
       </c>
       <c r="H978" t="n">
-        <v>1</v>
-      </c>
-      <c r="I978" t="n">
-        <v>6.712</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I978" t="inlineStr"/>
       <c r="J978" t="inlineStr"/>
       <c r="K978" t="inlineStr">
         <is>
@@ -32830,11 +32822,9 @@
         <v>-46707644.28827228</v>
       </c>
       <c r="H979" t="n">
-        <v>1</v>
-      </c>
-      <c r="I979" t="n">
-        <v>6.71</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I979" t="inlineStr"/>
       <c r="J979" t="inlineStr"/>
       <c r="K979" t="inlineStr">
         <is>
@@ -32869,11 +32859,9 @@
         <v>-46705520.34757228</v>
       </c>
       <c r="H980" t="n">
-        <v>1</v>
-      </c>
-      <c r="I980" t="n">
-        <v>6.689</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I980" t="inlineStr"/>
       <c r="J980" t="inlineStr"/>
       <c r="K980" t="inlineStr">
         <is>
@@ -32908,11 +32896,9 @@
         <v>-47076258.34237228</v>
       </c>
       <c r="H981" t="n">
-        <v>1</v>
-      </c>
-      <c r="I981" t="n">
-        <v>6.709</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I981" t="inlineStr"/>
       <c r="J981" t="inlineStr"/>
       <c r="K981" t="inlineStr">
         <is>
@@ -33095,11 +33081,9 @@
         <v>-47324812.30847229</v>
       </c>
       <c r="H986" t="n">
-        <v>1</v>
-      </c>
-      <c r="I986" t="n">
-        <v>6.665</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I986" t="inlineStr"/>
       <c r="J986" t="inlineStr"/>
       <c r="K986" t="inlineStr">
         <is>
@@ -33134,11 +33118,9 @@
         <v>-47324812.30847229</v>
       </c>
       <c r="H987" t="n">
-        <v>1</v>
-      </c>
-      <c r="I987" t="n">
-        <v>6.665</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I987" t="inlineStr"/>
       <c r="J987" t="inlineStr"/>
       <c r="K987" t="inlineStr">
         <is>
@@ -33210,11 +33192,9 @@
         <v>-47386220.31867229</v>
       </c>
       <c r="H989" t="n">
-        <v>1</v>
-      </c>
-      <c r="I989" t="n">
-        <v>6.665</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I989" t="inlineStr"/>
       <c r="J989" t="inlineStr"/>
       <c r="K989" t="inlineStr">
         <is>
@@ -33249,11 +33229,9 @@
         <v>-47386220.31867229</v>
       </c>
       <c r="H990" t="n">
-        <v>1</v>
-      </c>
-      <c r="I990" t="n">
-        <v>6.661</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I990" t="inlineStr"/>
       <c r="J990" t="inlineStr"/>
       <c r="K990" t="inlineStr">
         <is>
@@ -33288,11 +33266,9 @@
         <v>-47147323.75547229</v>
       </c>
       <c r="H991" t="n">
-        <v>1</v>
-      </c>
-      <c r="I991" t="n">
-        <v>6.661</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I991" t="inlineStr"/>
       <c r="J991" t="inlineStr"/>
       <c r="K991" t="inlineStr">
         <is>
@@ -33327,11 +33303,9 @@
         <v>-47436938.94637229</v>
       </c>
       <c r="H992" t="n">
-        <v>1</v>
-      </c>
-      <c r="I992" t="n">
-        <v>6.698</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I992" t="inlineStr"/>
       <c r="J992" t="inlineStr"/>
       <c r="K992" t="inlineStr">
         <is>
@@ -33529,6 +33503,6 @@
       <c r="M997" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-15 BackTest XSR.xlsx
+++ b/BackTest/2020-01-15 BackTest XSR.xlsx
@@ -451,7 +451,7 @@
         <v>-4034999.026200001</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-3901322.4427</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-3909689.120000001</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-3920533.049200001</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-3930485.049200001</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-3930485.049200001</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-3930485.049200001</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-4258786.740600001</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-3985235.228100001</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-4302073.907000002</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-4533182.923600001</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-4532182.923600001</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-4746510.022600002</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-4455170.386800001</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-4208388.608900001</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-4207888.608900001</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-4453255.653100002</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-4453255.653100002</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-4716893.158800001</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-4717046.729600001</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-4956935.377400002</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-4956435.377400002</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-5202210.471200001</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-5036037.998900002</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-4724178.628500002</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-5373784.031600001</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-5617319.794800001</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-6288053.204200001</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-6281317.989400001</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-6595311.959500001</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-6812404.495800001</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-7169018.6109</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-6138914.5025</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-5887705.672100001</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-6645511.960600001</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-6895435.492500001</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-6698895.705200001</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-6904146.4889</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-7040022.0301</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-7614532.7246</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-7615046.1423</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-7745057.291200001</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-7338919.982700001</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-7338839.982700001</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-7646741.445600001</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-7818026.254600001</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-8162465.907100001</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-7919645.613300001</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-7917645.613300001</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-8262556.483400001</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-8030092.488500001</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-7870238.482100001</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-8117161.077000001</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-8116661.077000001</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-8386635.179500001</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-8654775.042000001</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-8455329.807000002</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-8455249.807000002</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-8934140.387100002</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-8735475.383100001</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-8971283.889900001</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-8971203.889900001</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-9127508.126800001</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-8944727.033300001</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-8612956.242800001</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-8333466.632800001</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-8334400.334000001</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-8704330.668000001</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-8787556.310500002</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-8821748.941500003</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-8821748.941500003</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-8978325.610600002</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-9307452.956200002</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-9484107.204800002</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-9484107.204800002</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-9501471.6404</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-9723599.441299999</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-9601631.612499999</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-9601631.612499999</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-10060796.2793</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-10060796.2793</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-10268584.4771</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>-10226061.2338</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>-10045809.1129</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>-10240018.9371</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>-10233096.2602</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>-10232096.2602</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>-10592655.4255</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-10592544.4255</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-10801030.4715</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>-10800860.4715</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-10448507.5286</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-10780515.6975</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-11114931.3181</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-11124909.6454</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>-11124909.6454</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>-11124909.6454</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>-11131555.9394</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-11375976.209</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>-11375976.209</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-11108300.4628</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>-11216373.8739</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>-11083750.6116</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>-11083750.6116</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>-11257310.5401</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>-11495178.2502</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>-11495178.2502</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>-11508848.2141</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>-11885509.3309</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -14344,7 +14344,7 @@
         <v>-20615145.78072824</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14377,7 +14377,7 @@
         <v>-20593018.80812824</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14410,7 +14410,7 @@
         <v>-20736959.10162824</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14476,7 +14476,7 @@
         <v>-20365695.03222824</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14509,7 +14509,7 @@
         <v>-20423810.52902824</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -14542,7 +14542,7 @@
         <v>-20083669.96792824</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -14575,7 +14575,7 @@
         <v>-20135299.25942824</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -14608,7 +14608,7 @@
         <v>-19783183.60592823</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -14641,7 +14641,7 @@
         <v>-19783183.60592823</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14674,7 +14674,7 @@
         <v>-19783183.60592823</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -14707,7 +14707,7 @@
         <v>-19495688.59662823</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -14938,7 +14938,7 @@
         <v>-19328587.10782823</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -15004,7 +15004,7 @@
         <v>-18847587.34702823</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15037,7 +15037,7 @@
         <v>-18845120.51822823</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15070,7 +15070,7 @@
         <v>-19223720.72542823</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15103,7 +15103,7 @@
         <v>-19139097.02632823</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15136,7 +15136,7 @@
         <v>-17611603.74303685</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15169,7 +15169,7 @@
         <v>-17607695.62843685</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15202,7 +15202,7 @@
         <v>-17939360.33043685</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15235,7 +15235,7 @@
         <v>-17670778.06353685</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15268,7 +15268,7 @@
         <v>-17719451.45713685</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15301,7 +15301,7 @@
         <v>-17532576.94963685</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15334,7 +15334,7 @@
         <v>-17304891.57263685</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15367,7 +15367,7 @@
         <v>-17305543.81113685</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15400,7 +15400,7 @@
         <v>-16947680.83553685</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15433,7 +15433,7 @@
         <v>-16741251.87843685</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -15466,7 +15466,7 @@
         <v>-16741427.53293685</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -15499,7 +15499,7 @@
         <v>-16434591.73893685</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
         <v>-16434591.73893685</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -15565,7 +15565,7 @@
         <v>-16434106.73893685</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -15598,7 +15598,7 @@
         <v>-16433440.50043685</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -15631,7 +15631,7 @@
         <v>-16422518.39863685</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -15664,7 +15664,7 @@
         <v>-16422518.39863685</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
         <v>-16097593.23233685</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -15730,7 +15730,7 @@
         <v>-16097593.23233685</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -15763,7 +15763,7 @@
         <v>-16294508.68203685</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -15796,7 +15796,7 @@
         <v>-16537512.35433685</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -15829,7 +15829,7 @@
         <v>-16200964.42293685</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -15862,7 +15862,7 @@
         <v>-16401740.53663685</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -15895,7 +15895,7 @@
         <v>-16401527.19343685</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -15928,7 +15928,7 @@
         <v>-16080773.98703685</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -15961,7 +15961,7 @@
         <v>-15962358.87703685</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -15994,7 +15994,7 @@
         <v>-15574756.14893685</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
         <v>-15328784.08153685</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16060,7 +16060,7 @@
         <v>-15328784.08153685</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16093,7 +16093,7 @@
         <v>-15187312.63153685</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16126,7 +16126,7 @@
         <v>-15732287.99119461</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16159,7 +16159,7 @@
         <v>-16112458.31329461</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
         <v>-16112958.31329461</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -16225,7 +16225,7 @@
         <v>-16112958.31329461</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -16258,7 +16258,7 @@
         <v>-16190754.77509461</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -16291,7 +16291,7 @@
         <v>-15859664.61649461</v>
       </c>
       <c r="H482" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -16324,7 +16324,7 @@
         <v>-15925397.79389461</v>
       </c>
       <c r="H483" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
         <v>-15925841.37019461</v>
       </c>
       <c r="H484" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -16390,7 +16390,7 @@
         <v>-15493629.81229461</v>
       </c>
       <c r="H485" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -16423,7 +16423,7 @@
         <v>-15491486.31499461</v>
       </c>
       <c r="H486" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -16456,7 +16456,7 @@
         <v>-15851282.0960946</v>
       </c>
       <c r="H487" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -16489,7 +16489,7 @@
         <v>-15851960.25569461</v>
       </c>
       <c r="H488" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
         <v>-15813715.21739461</v>
       </c>
       <c r="H489" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -17611,7 +17611,7 @@
         <v>-14719304.83678599</v>
       </c>
       <c r="H522" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -17644,7 +17644,7 @@
         <v>-14753603.11778598</v>
       </c>
       <c r="H523" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -17677,7 +17677,7 @@
         <v>-14497989.00478598</v>
       </c>
       <c r="H524" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -22924,7 +22924,7 @@
         <v>-32906871.55780552</v>
       </c>
       <c r="H683" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -22957,7 +22957,7 @@
         <v>-32781147.48420552</v>
       </c>
       <c r="H684" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
@@ -22990,7 +22990,7 @@
         <v>-32952530.45940552</v>
       </c>
       <c r="H685" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
@@ -23023,7 +23023,7 @@
         <v>-32682008.70640552</v>
       </c>
       <c r="H686" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
@@ -23056,7 +23056,7 @@
         <v>-32816975.87920552</v>
       </c>
       <c r="H687" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
@@ -23089,7 +23089,7 @@
         <v>-33042076.66460552</v>
       </c>
       <c r="H688" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
@@ -23122,7 +23122,7 @@
         <v>-32898733.80410552</v>
       </c>
       <c r="H689" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
@@ -23155,7 +23155,7 @@
         <v>-32898733.80410552</v>
       </c>
       <c r="H690" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
@@ -23188,7 +23188,7 @@
         <v>-33075463.97230553</v>
       </c>
       <c r="H691" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
@@ -23221,7 +23221,7 @@
         <v>-33090295.36770552</v>
       </c>
       <c r="H692" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
@@ -23254,7 +23254,7 @@
         <v>-33320206.56790552</v>
       </c>
       <c r="H693" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
@@ -23287,7 +23287,7 @@
         <v>-33912312.81020552</v>
       </c>
       <c r="H694" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
@@ -23320,7 +23320,7 @@
         <v>-33912312.81020552</v>
       </c>
       <c r="H695" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
@@ -23353,7 +23353,7 @@
         <v>-34038034.88590552</v>
       </c>
       <c r="H696" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
@@ -23386,7 +23386,7 @@
         <v>-34194336.77590552</v>
       </c>
       <c r="H697" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
@@ -23419,7 +23419,7 @@
         <v>-34289714.51590552</v>
       </c>
       <c r="H698" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
@@ -23452,7 +23452,7 @@
         <v>-34492375.59600552</v>
       </c>
       <c r="H699" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
@@ -23485,7 +23485,7 @@
         <v>-34282396.02610552</v>
       </c>
       <c r="H700" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
@@ -23518,7 +23518,7 @@
         <v>-34637487.39910553</v>
       </c>
       <c r="H701" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
@@ -23551,7 +23551,7 @@
         <v>-34637707.56440552</v>
       </c>
       <c r="H702" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
@@ -23584,7 +23584,7 @@
         <v>-34637707.56440552</v>
       </c>
       <c r="H703" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
@@ -23617,7 +23617,7 @@
         <v>-34637707.56440552</v>
       </c>
       <c r="H704" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
@@ -23650,7 +23650,7 @@
         <v>-34851605.56750552</v>
       </c>
       <c r="H705" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
@@ -23683,7 +23683,7 @@
         <v>-34851605.56750552</v>
       </c>
       <c r="H706" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
@@ -23716,7 +23716,7 @@
         <v>-34612419.34710553</v>
       </c>
       <c r="H707" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
@@ -23749,7 +23749,7 @@
         <v>-34614880.67980552</v>
       </c>
       <c r="H708" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -23782,7 +23782,7 @@
         <v>-34614880.67980552</v>
       </c>
       <c r="H709" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -23815,7 +23815,7 @@
         <v>-34614880.67980552</v>
       </c>
       <c r="H710" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
@@ -23848,7 +23848,7 @@
         <v>-34967285.20950553</v>
       </c>
       <c r="H711" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
@@ -23881,7 +23881,7 @@
         <v>-34967212.20950553</v>
       </c>
       <c r="H712" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
@@ -23914,7 +23914,7 @@
         <v>-35308666.03940552</v>
       </c>
       <c r="H713" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
@@ -23947,7 +23947,7 @@
         <v>-35644251.89810552</v>
       </c>
       <c r="H714" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
@@ -23980,7 +23980,7 @@
         <v>-35354711.05200552</v>
       </c>
       <c r="H715" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
@@ -25036,7 +25036,7 @@
         <v>-36116304.219262</v>
       </c>
       <c r="H747" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
@@ -25102,7 +25102,7 @@
         <v>-36406483.828062</v>
       </c>
       <c r="H749" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
@@ -25135,7 +25135,7 @@
         <v>-36220901.534762</v>
       </c>
       <c r="H750" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
@@ -25366,7 +25366,7 @@
         <v>-37944080.47586199</v>
       </c>
       <c r="H757" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
@@ -25564,7 +25564,7 @@
         <v>-37728288.99816199</v>
       </c>
       <c r="H763" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
@@ -25597,7 +25597,7 @@
         <v>-37516496.83696198</v>
       </c>
       <c r="H764" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
@@ -25630,7 +25630,7 @@
         <v>-37516496.83696198</v>
       </c>
       <c r="H765" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
@@ -25663,7 +25663,7 @@
         <v>-37011101.79056198</v>
       </c>
       <c r="H766" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
@@ -25696,7 +25696,7 @@
         <v>-37010570.77416198</v>
       </c>
       <c r="H767" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
@@ -25729,7 +25729,7 @@
         <v>-36758272.58206198</v>
       </c>
       <c r="H768" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
@@ -25762,7 +25762,7 @@
         <v>-36758272.58206198</v>
       </c>
       <c r="H769" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
@@ -25795,7 +25795,7 @@
         <v>-36492107.91986198</v>
       </c>
       <c r="H770" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
@@ -25828,7 +25828,7 @@
         <v>-36218834.35946198</v>
       </c>
       <c r="H771" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
@@ -25861,7 +25861,7 @@
         <v>-36219888.54126198</v>
       </c>
       <c r="H772" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
@@ -25894,7 +25894,7 @@
         <v>-36219762.54126198</v>
       </c>
       <c r="H773" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
@@ -25927,7 +25927,7 @@
         <v>-36478883.55646197</v>
       </c>
       <c r="H774" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
@@ -25960,7 +25960,7 @@
         <v>-36521266.47376198</v>
       </c>
       <c r="H775" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
@@ -26026,7 +26026,7 @@
         <v>-36581269.98456197</v>
       </c>
       <c r="H777" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
@@ -26059,7 +26059,7 @@
         <v>-36599194.16326197</v>
       </c>
       <c r="H778" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
@@ -26092,7 +26092,7 @@
         <v>-36842861.33856197</v>
       </c>
       <c r="H779" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
@@ -31834,17 +31834,11 @@
         <v>-46663429.88334032</v>
       </c>
       <c r="H953" t="n">
-        <v>1</v>
-      </c>
-      <c r="I953" t="n">
-        <v>6.665</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I953" t="inlineStr"/>
       <c r="J953" t="inlineStr"/>
-      <c r="K953" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K953" t="inlineStr"/>
       <c r="L953" t="n">
         <v>1</v>
       </c>
@@ -31873,17 +31867,11 @@
         <v>-46664004.37224032</v>
       </c>
       <c r="H954" t="n">
-        <v>1</v>
-      </c>
-      <c r="I954" t="n">
-        <v>6.63</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I954" t="inlineStr"/>
       <c r="J954" t="inlineStr"/>
-      <c r="K954" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K954" t="inlineStr"/>
       <c r="L954" t="n">
         <v>1</v>
       </c>
@@ -31912,17 +31900,11 @@
         <v>-46705824.89424032</v>
       </c>
       <c r="H955" t="n">
-        <v>1</v>
-      </c>
-      <c r="I955" t="n">
-        <v>6.626</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I955" t="inlineStr"/>
       <c r="J955" t="inlineStr"/>
-      <c r="K955" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K955" t="inlineStr"/>
       <c r="L955" t="n">
         <v>1</v>
       </c>
@@ -31951,17 +31933,11 @@
         <v>-46705824.89424032</v>
       </c>
       <c r="H956" t="n">
-        <v>1</v>
-      </c>
-      <c r="I956" t="n">
-        <v>6.62</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I956" t="inlineStr"/>
       <c r="J956" t="inlineStr"/>
-      <c r="K956" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K956" t="inlineStr"/>
       <c r="L956" t="n">
         <v>1</v>
       </c>
@@ -31998,7 +31974,7 @@
       <c r="J957" t="inlineStr"/>
       <c r="K957" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L957" t="n">
@@ -32341,9 +32317,11 @@
         <v>-44976056.4824723</v>
       </c>
       <c r="H966" t="n">
-        <v>0</v>
-      </c>
-      <c r="I966" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I966" t="n">
+        <v>6.705</v>
+      </c>
       <c r="J966" t="inlineStr"/>
       <c r="K966" t="inlineStr">
         <is>
@@ -32378,9 +32356,11 @@
         <v>-45410012.3189723</v>
       </c>
       <c r="H967" t="n">
-        <v>0</v>
-      </c>
-      <c r="I967" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I967" t="n">
+        <v>6.725</v>
+      </c>
       <c r="J967" t="inlineStr"/>
       <c r="K967" t="inlineStr">
         <is>
@@ -33118,9 +33098,11 @@
         <v>-47324812.30847229</v>
       </c>
       <c r="H987" t="n">
-        <v>0</v>
-      </c>
-      <c r="I987" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I987" t="n">
+        <v>6.665</v>
+      </c>
       <c r="J987" t="inlineStr"/>
       <c r="K987" t="inlineStr">
         <is>
@@ -33155,9 +33137,11 @@
         <v>-47324812.30847229</v>
       </c>
       <c r="H988" t="n">
-        <v>0</v>
-      </c>
-      <c r="I988" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I988" t="n">
+        <v>6.665</v>
+      </c>
       <c r="J988" t="inlineStr"/>
       <c r="K988" t="inlineStr">
         <is>
@@ -33192,9 +33176,11 @@
         <v>-47386220.31867229</v>
       </c>
       <c r="H989" t="n">
-        <v>0</v>
-      </c>
-      <c r="I989" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I989" t="n">
+        <v>6.665</v>
+      </c>
       <c r="J989" t="inlineStr"/>
       <c r="K989" t="inlineStr">
         <is>
@@ -33229,9 +33215,11 @@
         <v>-47386220.31867229</v>
       </c>
       <c r="H990" t="n">
-        <v>0</v>
-      </c>
-      <c r="I990" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I990" t="n">
+        <v>6.661</v>
+      </c>
       <c r="J990" t="inlineStr"/>
       <c r="K990" t="inlineStr">
         <is>
@@ -33266,9 +33254,11 @@
         <v>-47147323.75547229</v>
       </c>
       <c r="H991" t="n">
-        <v>0</v>
-      </c>
-      <c r="I991" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I991" t="n">
+        <v>6.661</v>
+      </c>
       <c r="J991" t="inlineStr"/>
       <c r="K991" t="inlineStr">
         <is>
@@ -33303,9 +33293,11 @@
         <v>-47436938.94637229</v>
       </c>
       <c r="H992" t="n">
-        <v>0</v>
-      </c>
-      <c r="I992" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I992" t="n">
+        <v>6.698</v>
+      </c>
       <c r="J992" t="inlineStr"/>
       <c r="K992" t="inlineStr">
         <is>
@@ -33340,9 +33332,11 @@
         <v>-47436257.36577229</v>
       </c>
       <c r="H993" t="n">
-        <v>0</v>
-      </c>
-      <c r="I993" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I993" t="n">
+        <v>6.686</v>
+      </c>
       <c r="J993" t="inlineStr"/>
       <c r="K993" t="inlineStr">
         <is>
@@ -33377,9 +33371,11 @@
         <v>-47631172.16637229</v>
       </c>
       <c r="H994" t="n">
-        <v>0</v>
-      </c>
-      <c r="I994" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I994" t="n">
+        <v>6.714</v>
+      </c>
       <c r="J994" t="inlineStr"/>
       <c r="K994" t="inlineStr">
         <is>
@@ -33414,9 +33410,11 @@
         <v>-47367597.62787229</v>
       </c>
       <c r="H995" t="n">
-        <v>0</v>
-      </c>
-      <c r="I995" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I995" t="n">
+        <v>6.697</v>
+      </c>
       <c r="J995" t="inlineStr"/>
       <c r="K995" t="inlineStr">
         <is>
@@ -33451,9 +33449,11 @@
         <v>-47371563.60337229</v>
       </c>
       <c r="H996" t="n">
-        <v>0</v>
-      </c>
-      <c r="I996" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I996" t="n">
+        <v>6.712</v>
+      </c>
       <c r="J996" t="inlineStr"/>
       <c r="K996" t="inlineStr">
         <is>
@@ -33488,9 +33488,11 @@
         <v>-47519771.18857229</v>
       </c>
       <c r="H997" t="n">
-        <v>0</v>
-      </c>
-      <c r="I997" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I997" t="n">
+        <v>6.697</v>
+      </c>
       <c r="J997" t="inlineStr"/>
       <c r="K997" t="inlineStr">
         <is>
